--- a/scientific/PhysicsForGirl.xlsx
+++ b/scientific/PhysicsForGirl.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
-    <t xml:space="preserve">hey hi i have a big old announcement all the details are going to be at the end of the video but here's a teaser i'm making a class a physics 101 course it's going to be freely available right here on the physics girl youtube channel so check out the end of the video for all of the details okay back to your regularly scheduled youtube video in 1977 an alaska airlines flight originating in homer alaska was delayed due to maintenance issues its air circulation system was turned off but the passengers were still on board the airplane and sat on the runway for three hours within the next 48 hours 38 out of the 53 passengers and crew started experiencing chills fever severe coughing and headaches the cause of this sickness was initially suspected to be a toxic substance introduced into the passenger compartment by engine failure but then after dozens of the sick passengers were hospitalized one passenger was confirmed sick with influenza an epidemiologist later discovered that every one of those 38 passengers they tested came back positive for the flu that means without air circulation systems a whopping 72 percent of the people on board were infected with the viral illness from one sick passenger but recent studies have shown that the daily reality of airplane travel is much safer than the alaska airlines event how safe well on an airplane with normal and functional circulation the number of passengers likely to get sick when one fellow passenger has the flu is just 0.7 passengers that is less than one person so what has changed since that 1977 flight hey i'm diana you're watching physics girl and this case was so intriguing to me it sent me down the rabbit hole of this typically overlooked but incredibly important area of research in science air specifically ventilation and how airflow can impact your respiratory safety so i called up a researcher at lund university in sweden to talk about air we as humans we still emit like about a million skin and hair fragment particles per hour wow and if you're 10 people in a surgery room that will make up the concentration pretty fast mullen has to think about those hair and skin particles and also bacteria and viruses in the air because she studies different types of airflow and ventilation systems and how they might impact say the spread of respiratory diseases so let's start there let's talk about how you even catch respiratory diseases diseases like the flu pneumonia covid19 the literature on this refers to three modes of transmission number one is self-inoculation which is when you basically transfer the disease to yourself by say touching a dirty door handle getting the virus on your hands and then touching your nose or mouth that's why you're not supposed to touch your face and then number two large droplet transmission which involves being coughed or sneezed on or sung to by an infected person and getting hit by droplets at least five microns in size that size is important and it's actually come up in the news lately we'll get to that and then there's number three airborne transmission so the novel coronavirus sars co v2 which is the virus responsible for the current coven 19 respiratory disease pandemic can be transmitted via the first two modes what about airborne transmission you ask well scientists are still today debating whether sars kovi 2 is considered to be airborne but being airborne may not mean what you think it means we know you can get the disease from the air so when public officials refer to the virus as being airborne they generally mean that it can linger in the air in tiny droplets at that size of 5 microns or less so the virus can linger in these tiny particles in the air even after the person who coughed has left the building that might explain this news article that recently came out about a woman who rode an elevator alone in her building and went on to be the origin of 71 infected persons and also a caveat to all of the information about covid19 the coronavirus that causes it was only discovered on january 7th of this year it was only named on february 11 2020. so all this information is still incredibly new and scientists are rushing to understand and contain the virus so some of this information can and probably will change now that we understand a bit about how respiratory diseases spread we can talk about the magic that is ventilation research because for example if you study the ventilation in hospitals you might be able to help prevent patients from getting sick but also protect healthcare workers we go out to hospitals and collect air samples and we've done that in in our three different projects and every time we go there and we're collecting and the nurses ask when do we get the answers can you say something can we can you help us because they don't want to have infectious diseases they get sick themselves this is such important research how do people design the airflow in an operating room to keep you safe when you're getting open heart surgery mullen worked in a study looking at different ventilation systems to see which were the cleanest if you want to understand the type of research scientists do on ventilation this is a great example let's take a look at it so we studied the bacterial concentration in air so we pull in a lot of air you can think of like a vacuum cleaner with a filter on so we pull in a lot of air and then we have a filter there where the bacteria get stuck and then we put this filter on one of these petri dishes and then we can cultivate and count the number of bacteria that was in that ear sample this is so simple by collecting bacteria from the air from different places around the room they were able to figure out which was the cleanest ventilation and it turns out the cleanest option was where the output of the air was right above the operating table this seems pretty intuitive but now we have science to back that intuition and i think it's worth mentioning that they care about cleanliness but also about temperature and environmental control because they are wearing a lot of like an apron and then a lead vest and then another apron and a lot of masks and double gloves that it's quite sweaty for the surgeon while the nurse standing to the side she is just wearing short sleeves and a pair of gloves so it's very different yeah it was well well ventilated where the surgeon is and the bit less high air flows in in the surroundings i just want to say airflow is chaotic mullen told me there's still a lot we don't know like for example how far infectious diseases can travel in little droplets in various spaces so that six feet or two meter social distancing rule that's not completely understood and it's not exact in all spaces and situations airflow gets really complicated real fast which brings me to the entire field of study that we're talking about here bioaerosols bioair cells are tiny particles in the air that are living or dead but we're living for example you can create bioaerosols by coughing or sneezing out the viruses and bacteria in your body and then scientists in mollen's field study those coughs and sneezes in fact mullen is looking to create the perfect sneeze i'll explain when you cough or sneeze you eject this hot moist turbulent cloud of air that can travel up to eight meters in a room the cloud which is warmer than the surrounding air is buoyant so it moves upward and it's also comprised of droplets of various sizes so larger droplets fall to the ground faster which means they're less of a risk for transmission of diseases but then smaller droplets can hang around longer in the air interestingly if you sneezed on the moon all of the droplets would immediately fall to the ground no matter the size although you wouldn't be able to breathe after you sneeze so that's a problem so to study these phenomena here on earth mullen has worked on designing a spray bottle that accurately simulates the bubbles that humans produce when they cough or sneeze the perfect sneeze my words not hers one study found that bubbles like the ones you produce with your snot last longer if they contain bacteria researchers found that bacteria secrete a substance that stabilizes the bubble membrane a lot like soap does and then because the bubble lasts longer the membrane gets thinner and then when it bursts it creates a lot more tiny droplets that can transmit disease this is a hugely important find for disease transmission it means that by the very chemistry and dynamics of bacteria they can last longer in the air and the same might be true for viruses that's crazy here's a fun fact sort of about coughing a cough can travel as fast as 50 miles an hour and expel almost 3 000 droplets now you know so how do you combat the transmission of disease in the air well one massively important method is to simply replace the air ventilate there's even a unit of speed for replacing the air it's cubic feet per minute as it turns out different types of spaces have different recommended ventilation standards for example the ventilation system in your house is supposed to replace the air about every three hours did you know there are standards for ventilation systems of bank vaults because you know if you get stuck in a bank vault well you'll have a lot of other problems but at least you'll be able to breathe in fact you're supposed to get the same rate of new air as you would if you were stuck at the office about five cubic feet per minute of new air per person that's why they always break in through the ventilation systems in weight rooms air needs to be exchanged four times faster than the bank vault because when you work out you produce more carbon dioxide so all those fans at the gym i thought that was just for cooling people down but it turns out it's to move air around the room as well the real lesson here though is that the next time you're stuck in a bank vault don't do a high intensity workout because there might not be enough airflow now bigger spaces have more space for airflow and exchange so what's the biggest space so in outdoor you have a huge um surrounding volume of air you may also have quite like some air turbulence and some airflow and some wind may be going past and that will dilute the aerosol concentration very efficiently and very fast knowing that space size affects ventilation we can revisit our original question whether disease transmission is particularly worsened on an airplane you're in an enclosed space you're packed like sardines think back to that 1977 study where 72 of passengers were infected well the ventilation system was off when it's running studies found that outbreaks on flights for a recent type of flu the h1n1 spread to just one to five percent of passengers but it turns out airplanes have very active ventilation systems within two to three minutes they've entirely replaced the air in the cabin with fresh albeit dry air airplane systems are continually pumping out the air that you coughed into your neighbor sneezed into your other neighbor's drool evaporated into and they're replacing it with new filtered outside air that's why it's so important to keep the air flowing although to complicate things it matters where you take your air in from for example if the air intake for your ventilation is on the ground you might suck up more particles more dust and bacteria so that's another active area of study for bioaerosols and the final lesson is that good ventilation cannot make a space completely safe maulin pointed me to a paper that showed people in aisle seats had a higher risk of infection than anyone else because people walking back from the bathroom like to touch the backs of seats that's why disinfecting surfaces and not touching your face is so important don't touch your face unless you want a case of the flu there are a few more factors in the transmission of kova 19 i was curious about and thought you all might want to know here's one how long does sars kovi 2 stick around on various surfaces a study published in march found that the virus stays intact on plastic the longest and copper the shortest the study found that there were still detectable virus particles after three days on plastic and stainless steel for cardboard no viable virus is found after 24 hours and for copper no viruses existed after just four hours so copper has anti-viral properties and the last piece of this whole puzzle that was really interesting to me had to do with how many virus particles you need to get infected for example if you were exposed to hiv you wouldn't get infected with just one virus particle you would need a certain number of virus particles and that number is the so-called infective dose which is defined as the lowest number of virus particles that will cause an infection to 50 percent of people in a group if you give them that number of particles so for example for certain strains of hiv that infective dose is about a thousand particles so what's the effective dose for stars cov2 well scientists still lack enough data to say but based on their understanding of sars which is a similar coronavirus one expert says the infective dose should be on the order of a few hundred or thousand coronavirus particles to develop symptoms so we started this video with air ventilation to learn how diseases spread but it turns out that's the tip of the iceberg i hope you learned something new though because i know i did thank you so much for watching happy physicsing stay safe and be careful riding mountain bikes hey hey hi you're still here which means i get to tell you all about this big announcement that i have i'm gonna be a physics teacher at least right here on youtube i'm making a course it's like a physics 101 course it's based off the ap physics one curriculum so if you're taking the ap physics one class and you're gonna take the test it's a great review and it's also gonna just be a lot of fun it's me deep diving into all the phenomena that got me so hooked on this subject all the lessons are gonna be freely available right here on my channel so keep an eye out the first lesson in the trailer is gonna drop within the next couple weeks and then the rest of the lessons will be released throughout 2020 so i'm very excited to help you all learn from home so stay tuned physics 101 with diana coming soon [Music] you </t>
+    <t>content</t>
   </si>
   <si>
     <t xml:space="preserve">[Music] so you know when you find yourself stuck at home with a bunch of sodium acetate in the fridge and a laser in your hand Oh Monday's am i right I'm Diana you're watching physics girl and I'm gonna walk you through how to use your sodium acetate and your laser for some fun physics experiments okay let's get started by the way a lot of these experiments actually use household items so most of them you'll be able to do at home okay first experiment I have here a glass of water and a glass with a mystery liquid and I've got my violet laser this is a laser with violet colored lights I'm gonna shine the laser into glass a over here and don't really see much see a little bit of a violet line but when I shine it into glass B I see a very very bright clear blue line which one do you think is the plain water there's no general glass a glass a is the water so when I shine the laser into the water I can see a little bit of the violet light creating a line through the water what is doing is scattering off of some of the water molecules or other impurities in the water but the mystery liquid is very different can you guess what the mystery liquid is before I tell you a quiz and now's the time of the show where i quiz fruit in my kitchen are you ready well let's jam here's the question since the laser was invented in 1960 what is the coolest use for lasers is it measuring the distance to the moon laser tag detecting gravitational waves to give gamers a reality-based way to sight their targets and video games fetching itty-bitty serial numbers onto diamonds to control and cool individual atoms an answer is yes laser tag was a close second you were very close but the answer is actually f to cool and control individual atoms laser cooling is literally the coolest use for lasers and it's a real and crazy thing we can use lasers to cool individual atoms and molecules down to near absolute zero okay back to you Diana thanks Diana now what is this mystery liquid it's actually tonic water tonic water contains an ingredient called quinine and when you shine the violet light on the tonic water it glows it flores's check what happens when I shine an ultraviolet light first on the water and then on the tonic water yeah so fluorescing is this process where higher energy light like ultraviolet or violet light is absorbed and then lower energy light is emitted it glows lower energy colored light so in comes ultraviolet out goes blue that's what's happening with the quinine but regular water is cool too here's a fact about water of all the water on earth only 1% is used for human activities like agriculture plumbing drinking which means that over your lifetime you will most likely drink some water molecules that a dinosaur peed out next one in this container I have some oil and I'm gonna drop an ice cube into the oil now my question is is the ice cube going to sink float explode or something else let's see why would the ice cube stop in the middle well this was a tricky one I actually poured two different types of oil in here there's vegetable oil on the bottom and baby oil on the top the ice splits right in between or maybe a little bit lower into the vegetable oil now when the water from the ice melts it increases in density to nearly one gram per centimeter cubes so the water sinks to the bottom of the oil the water initially sticks to the cube weighing it down and then drips off and the cube bounces back up a little bit now have a question if you were holding an ice cube in a boat and the water was dripping off your hand into the bottom of the boat would the boat go up and down like these ice cubes as the water dripped off and splashed onto the floor leave your answer in the comments below here's a fun fact about density if I wanted to fill the tallest building in the world the Burj Khalifa with water vapor by boiling water I would only have to fill one tenth of one storey with water and boil that fill the rest of the hundred and sixty three storeys with water vapor although I'd have to fill the story that's the average volume of the rest of the stories but you get the idea another crazy cool fact about density the densest material naturally found on earth is a metal called osmium and it has a density 22 times out of water now how does that compare to the lightest material aerogel it's a man-made material but it's really light now if you had a sugar cube size of osmium it would weigh the same as twenty thousand sugar cube sizes of aerogel that's crazy all right next experiment this one is really cool this is actually one of the first experiments I remember ever doing and third grade but we're gonna do it bigger here's another mystery liquid I scratched off a bit of residue from when I made the liquid and watch closely a lot of people call this hot ice and in fact it is pretty warm to the touch we measured the temperature before and after it crystallized and it rose nearly 30 degrees Fahrenheit so what do you think this liquid is well it's called sodium acetate and you can actually make it with adult supervision by mixing a quarter cup of baking soda with a liter of vinegar which we all know makes co2 gas which you can actually scoop out and pour out candles with that's a bonus experiment but the other stuff you make is sodium acetate then you boil that stuff for about an hour and then pour it into a jar and you can just set that aside cover it on the table or refrigerate it until it's relatively cool to the touch but sodium acetate freezes at 58 degrees Celsius so what you did when you put it in the refrigerator and let it cool down is you actually supercooled it you can supercooled water below the point where it would solidify into ice but the thing is it needs a nucleation site a place for the ice crystals to start growing so you can only do that with really pure water but sodium acetate is really stable stuff so you can super cool it easily and then you need to put some crystals like the residue we used or introduce your finger or shake it around or something like that in order to get it to start crystallizing and that's hi Diana I'm so sorry to interrupt with this segment we were an exclusive interview okay two of these facts are true and one is alive can you guess which here are the facts sodium acetate is used to clean out drains because it dissolves hair tissues sodium acetate is used in portable hand warmers sodium acetate is used to flavour salt and vinegar potato chips and the answer is do you need a life lime some help from some other citrus perhaps some lemonade ah that is correct the first one is a lie sodium acetate is used to flavor food and it is used in hand warmers but it's sulfuric acid that is used in drain cleaner all right back to you Diana for the final experiment I have a laser and I'm gonna put it on this little contraption here to hold it steady the laser is pointing down at a piece of mirror the mirrors on top of balloon stretched over a cup with the bottom cut out and a cup is taped to a cone I made out of some thick paper that all is taped to a speaker and out of the speaker I'm playing a single tone a single note so I have this app called Sonic and I'm just picking a frequency like 65 Hertz this is what 65 Hertz sounds like I can go up in frequency which means the pitch goes up here we go 75 85 now when I turn the laser on and the laser reflects off of the piece of mirror check out what happens on the wall now if I add another frequency you'd get even more complex motion what we're seeing looks like an animation it's crazy even in real life it doesn't look like this could be real so this app sonic only does one frequency but I figured a way to do two frequencies by getting a second app called function generator and I played them both at the same time this is what that would sound like this is 85 Hertz plus a hundred and ten kind of ugly here's a B five Hertz plus 120 and this is what it looks like you're seeing the motion of the mirror on the balloon the balloon is acting like the membrane on a drum and as sound from the speaker goes up into the cup it vibrates the balloon just like sound waves might vibrate your eardrum and we are seeing that vibrating motion this is what it would look like with music this is just a really cool way to visualize the vibrations of sound waves in air I love this demonstration here's another random thing you can do with lasers if you've ever seen this like hollow material shine a laser on it it creates all these dots because this material is actually a diffraction grating it's a bunch of different little lines at stin to diffract different colors out but if you just have one color and the laser is just one color then you'll see a bunch of dots hey thanks for watching I hope you try these experiments safely at home and happy physics Inge hi hi hi if you're still here I linked a bunch of videos that I thought you might like I have some more DIY experiments somewhere on the screen there's also a laser cooling video the laser cooling was your favorite video y'all link it for them - no worries check it out better click soon though because it's mango man going man gone </t>
@@ -13314,8 +13314,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -13331,7 +13339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -13339,12 +13347,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13639,14 +13665,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:A155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13690,733 +13716,733 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
